--- a/blog_automatic_posting.xlsx
+++ b/blog_automatic_posting.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,360 +451,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnZG12</t>
+          <t>https://link.coupang.com/a/crdkCd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://thumbnail8.coupangcdn.com/thumbnails/remote/492x492ex/image/vendor_inventory/7f92/18644a2deebb98b7f13e6ce0bf01d28551fb4cc4d8ad0bd91c6f22db45af.jpg</t>
+          <t>https://thumbnail10.coupangcdn.com/thumbnails/remote/492x492ex/image/retail/images/1398406238839695-e0b7d3ce-35f9-4a33-a0f8-33ac0ef95a3a.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>⭕ 소프트한 터치 및 최적의 그립감
-⭕ 뛰어난 반발력으로 입문자용으로 적합
-⭕ 마감퀄리티 좋고 가성비 굿
-⭕ 합성 고무 소재 적용
-간만에 농구가 하고 싶어서 가성비 좋은 스타 점보루키
-농구공을 주문했어요
-다이어트도 할겸 겸사겸사 예전에는 친구들과 농구도
-자주해서 생각이 나더라구요
-집앞에 농구코트가 있어서 자주 할수있을거 같고
-공을 받아보니 드리블을 해봤는데 공이 반발력이 좋아요
-색상도 일반 농구공과 큰 차이가 없었고 재질도 가격대비
-괜찮은거 같고 마감퀄리티도 괜찮아요
-드리블할때 통통 튕기는 느낌이라서 힘을 안줘도 잘튀는데
-아직은 오랜만에 하다보니 적응이 좀 필요할거 같아요
-야외 코트나 막 쓰는 용으로 부담없는 농구공이며 입문자용로
-사용하기에 적합한거 같아요
-제 후기가 도움이 되었다면
-[ 도움이 돼요 ] 눌러주시면 정말 감사드려요</t>
+          <t>@ 요약 (하단에 사용후기 있음)
+1. 흡입력 : 강력함
+2. 무게 : 꽤 무거움 (청소시간 생각하면 무거움)
+3. 소음 : 팩트는 모터는 세상조용, 헤드만 결합하면 드릴변신
+2018년도에 구입한 엘* 코드0가 멈췄습니다.
+청소 중 갑자기 바디 입구가 똑하고 부러지더니
+더이상 사용할 수가 없었습니다.
+네 .. 8년 사용했으면 잘 사용했지요.
+바로 샤크가 생각났습니다.
+지금 최신기종은 아니지만
+티비광고에서 계속 보여주던 그 상품,
+지금 이상품을 사용해보고 싶었습니다.
+그래도 그냥 구입은하면 안될 것 같아서
+@@ 가격, AS, 흡입력
+총 3가지를 비교해보고 구매하기로 했습니다.
+(2025년 1월말 ~ 2월극초 기준)
+1) 가격 : 엘*&gt;샤크&gt;삼* (삼* 승)
+2) AS : 엘*=삼*&gt;&gt;샤크 (엘* 삼* 승)
+3) 흡입력 : 샤크&gt;삼*&gt;엘* (샤크 승)
+삼*, 샤크 둘을 마지막까지 고민을 했습니다.
+가장 고민이 되는 부분이 AS였거든요.
+이전 청소기를 약 100만원 정도 구매 후 8년동안 3번의 AS를 갔다왔습니다.
+그때마다 국내브랜드의 AS 처리 속도에 놀랐는데
+샤크는 접수 후 택배 배송을 해야하는지라 고민이 많이 되었습니다.
+네 .. 그냥 샤크가 사고 싶었어요.
+그래도 좀더 명분을 가지기 위해
+가격대비 AS를 비교했습니다.
+저는
+100만원 구입 후 8년동안 3번의 AS를 다녀왔으니
+33만원 구입 후 2.5년동안 1번의 AS를 다녀온 샘이였습니다.
+그리고 저는 저 청소기를 삼구에 구입했습니다.
+(리뷰작성 당시는 삼오네요.)
+그래서 차이금액이 크게 부담이 되지 않는지라
+그냥 사고 싶은거 샀습니다. ㅋㅋ
+전체적으로 만족합니다.
+무거운것만 뺴면 추천합니다.
+@@ 서론이 길었고 후반부는 사용후기만 적습니다.
+1) 특수브러쉬 좋지만 아기있는집 매트는 씹힘 (힘이 좋아서)
+2) 헤드는 코드0대비 작아서 틈새에 생각보다 쏙 들어감
+3) 에코모드는 모터소리만 작아짐 (헤드소리는 여전히큼)
+4) 헤드랑목이 잘 안돌아가서 뻑뻑한 느낌 (좌우로 잘 안움직이는 느낌)
+5) 그러다보니 쇼파틈새에는 들어가기가 힘듬, 바디를 옆으로 눕혀서 청소 불가능
+6) 그립감은 최악
+7) 코드0는 컵잡듯이 잡고 손등으로라도 받칠수 있지만 샤크는 빗자루잡듯 잡아서 힘듬
+8) 그래서 생각보다 많이 무겁다 느껴지고, 엄지가 아프면서 전완근 아픔
+9) 배터리 소모가 생각보다 빨리소모됨 (2개여서 문제되지는 않음)
+10) 먼지하나는 기가막히게 잘빰 (흡입좋고 그래서 배터리소모도 빠른듯)
+11) 먼지통 시인성부족 (먼지가 달라붙어서 안의 먼지가 안보임)
+12) 먼지통의 먼지는 '통'하니 빠져서 좋지만 그 안의 그물망은 먼지제거 불편함
+13) 손잡이부분이 건전지인데 그부분이 고무로되어있어서 잠깐 세워둘 때 고정 굳
+14) 침대청소헤드 최고, 청소해봤는데 인절미 가루나옴, 사용추천
+구매시 참고바랍니다.
+저는 무거운것만 빼면 사용할만 합니다.
+추천하는편입니다.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>스타 점보루키 농구공 BB6067, 점보 루키, 7호, 1개</t>
+          <t>샤크 에보 파워 시스템 무선 청소기 ADV CS601, 블루, ADV CS601</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1. 가성비 최고 입문 농구공  
-스타 점보루키 농구공 BB6067은 가성비가 뛰어난 입문자용 농구공으로 추천합니다. 소프트한 터치와 최적의 그립감 덕분에 드리블을 할 때 편안하게 사용할 수 있으며, 뛰어난 반발력으로 초보자도 쉽게 공을 다룰 수 있습니다. 합성 고무 소재로 제작되어 내구성이 좋고, 마감 퀄리티도 뛰어나 부담 없이 야외 코트에서 사용할 수 있습니다. 패턴과 색상은 일반 농구공과 크게 다르지 않아 익숙함을 느낄 수 있으며, 드리블 시 통통 튀는 느낌이 즐거워 농구에 더욱 몰입할 수 있게 해줍니다. 오랜만에 농구를 다시 시작하고 싶은 분들께 적극 추천하는 제품입니다.
-2. 부드러운 터치와 반발력
-스타 점보루키 농구공 BB6067은 부드러운 터치감과 뛰어난 반발력이 특징입니다. 공을 처음 받아 dribble을 해보았을 때, 공이 가볍고 잘 튀는 느낌이 들어서 적응 기간이 필요한 걸 제외하면 매우 만족스러웠습니다. 소프트한 터치 덕분에 공을 다뤄보기에도 편하고, 초보자로서 충분히 다루기 쉬운 제품이라는 생각이 들었습니다. 특히, 반발력이 뛰어나서 힘들이지 않고도 쉽게 드리블이 가능해, 농구 입문자에게 최적화된 선택입니다. 가격 대비 마감 퀄리티도 우수해 야외에서 부담 없이 사용할 수 있어 이 농구공을 자신 있게 추천합니다.</t>
+          <t>1. 강력한 흡입, 무거운 몸체  
+샤크 에보 파워 시스템 무선 청소기 ADV CS601은 강력한 흡입력을 자랑하는 제품입니다. 먼지를 효과적으로 빨아들이며, 특히 청소 성능은 만족스럽습니다. 그러나 무게가 꽤 무겁다는 단점이 있습니다. 청소 중 손목이나 팔에 부담을 줄 수 있어, 긴 시간 사용할 경우 피로를 느낄 수 있습니다. 또한, 헤드 부분의 회전이 뻑뻑해 좁은 공간에서의 청소가 어려운 점도 고려해야 합니다. 이런 특성으로 인해, 흡입력은 뛰어나지만 무게와 사용감에 있어서 아쉬움이 남는 제품입니다.
+2. 청소 성능 뛰어나지만 사용감 아쉬움
+샤크 에보 파워 시스템 무선 청소기 ADV CS601은 강력한 흡입력으로 청소 성능이 뛰어나지만, 사용감 면에서는 아쉬움이 있습니다. 무게가 꽤 무겁고 그립감이 좋지 않아 장시간 사용 시 손목과 팔에 부담이 느껴집니다. 헤드의 움직임이 뻑뻑하여 소파나 좁은 공간 청소가 어려운 점도 불편합니다. 또한, 배터리 소모가 빨라 다소 불편함을 겪을 수 있습니다. 그럼에도 불구하고 먼지 제거와 성능은 우수하여 추천할 만합니다. 전체적으로 무게 외에는 높은 만족감을 줄 수 있는 제품입니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnZG3N</t>
+          <t>https://link.coupang.com/a/crdkDR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/68464719721941-4d21d794-9fc6-437b-a989-d7656944339a.png</t>
+          <t>https://thumbnail8.coupangcdn.com/thumbnails/remote/492x492ex/image/vendor_inventory/52b2/a4eb3e52ccc9af5fd1c3935f05fbdd868e07136ff8149a17a3709da47c58.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>프로모릭스 픽앤롤 농구공 7호 + 가방 + 단방향 볼펌프 랜덤발송 세트
-★ 목차
-구매 후기에 앞서서 굉장히 솔직하게 작성하겠습니다.
-내돈내산 입니다. 어떠한 광고도 일절 없음을 미리 밝힙니다
-★ 구매이유
-갑자기 문득 옛날에 농구를 즐겨 했던 시절이 생각나서 쿠팡에서
-검색하여 주문하게 되었습니다.
-★ 장점
-1. 우수한 품질의 농구공
-농구공 자체의 품질이 매우 뛰어났습니다. 표면이 내구성 있는 소재로 제작되어 오랫동안 사용해도 손상이나 마모가 적었습니다. 그립감이 좋아 드리블과 슛 시 안정적인 컨트롤이 가능했습니다. 야외 코트뿐만 아니라 실내 코트에서도 우수한 성능을 발휘했습니다.
-2. 편리한 휴대용 가방
-세트에 포함된 가방은 휴대성을 높여주었습니다. 농구공과 함께 기타 개인 용품을 수납할 수 있는 충분한 공간이 있어 편리했습니다. 가방의 소재도 견고해서 여러 번 사용해도 변형이 없고, 어깨 스트랩이 있어 이동 시에도 부담이 적었습니다.
-3. 효율적인 단방향 볼펌프
-랜덤 발송되는 단방향 볼펌프도 매우 유용했습니다. 농구공을 빠르고 쉽게 공기 주입할 수 있어 편리했습니다. 특히 외부에서 급하게 공기가 필요할 때 신속하게 사용할 수 있어 좋았습니다. 펌프의 크기도 작아 가방에 함께 넣고 다니기 좋았습니다.
-★ 가격 :
-가격이 저렴합니다.
-그리고 품질대비 더더욱 저렴하다 볼수 있어요
-★ 재주문할것인가여?
-- 보고 추후에 한개더 주문하려고 합니다.
-★배송
-- 주문하고 다음날 바로 왔어요.
-★ 도움이 되셨으면 &lt;도움이 되요&gt; 클릭 부탁드립니다.</t>
+          <t>본가에선 다이슨 무선청소기를 계속 써왔습니다만 가끔 야근있고 할때 기숙사에서 생활하려면 아무래도 따로 하나 필요한 것 같아서 가볍게 쓸 용도로 하나 구매했어요. 원래 쓰던 게 다이슨이라 그런지 처음엔 기대 별로 안 했고, 그냥 싼 맛에 쓰자~ㅋㅋ 이런 느낌이었는데, 생각보다 훨씬 괜찮아서 놀랐습니다! 가성비가 진짜 좋다고밖에 생각이 안들어요~!
+제일 먼저 느낀 건 소음이 생각보다 진짜 조용하다는 거였어요. 기숙사는 아무래도 빌라다보니 방음도 잘 안 되고 옆집 ㅇ아랫집 눈치도 좀 보이잖아요? 근데 이 청소기는 켜도 시끄럽게 윙윙 거리지 않아서 좋았어요.
+밤 늦게나 아침 일찍 청소해도 민폐 수준은 아니라서 편하게 쓸 수 있을 것 같더라고요. 흡입력도 썩 괜찮고, 바닥에 떨어진 머리카락이나 먼지, 뭐 뿌시래기나 그런거 같은 거 그냥 쓱쓱 밀면 다 빨아들여서 청소가 쉬워요 ㅋㅋ
+디자인도 깔끔한 편에 색깔도 무난해서 방에 그냥 세워놔도 인테리어에 큰 지장도 없고 저가형 생각도 별로 안 나구요. 전체적으로 마감도 나쁘지 않았고, 생각보다 가볍고 손에 잘 잡혀서 들고 다니기도 편했어요.
+그리고 무엇보다 배송이 진짜 미쳤어요ㅋㅋ 아침에 주문했는데 저녁에 바로 도착해서 깜짝 놀랐네요 바로 사용해볼수있어서 기분 좋았습니다! 거기다 바로 개봉하고 테스트 해봤는데 생각보다 훨 기대이상이라 더 만족스러웠구요~
+단점을 찾고 찾아봐서 굳이 하나 꼽자면, 거치대에 꽂으면 자동 충전되는 방식이 아니고 충전기 선을 따로 꽂아야 된다는 점? 근데 그게 그렇게까지 불편하진 않아서 그냥 그러려니 하고 쓰고 있어요. 오히려 구조가 단순해서 제품이 가볍고 오래 쓰기엔 나을 수도 있겠다는 생각도 있고 아주 거슬리는게 아니라서 전체작으론 진짜 잘 구매한거 같아요~~ 기숙사나 자취방에서 가볍게 쓰기에는 뭐 최고고, 무선 청소기 고민 중인 분들한텐 자신 있게 추천할 수 있을 듯 합니다! 이 가격에 이런 성능이면 뭐 대만족입니다 ㅋㅋ 청소 자주 안 하던 사람인데 요즘은 그래더 한번씩 청소기좀 더 돌려보게 하고 그래요 ㅋㅋ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>프로모릭스 픽앤롤 농구공 7호 + 가방 + 단방향 볼펌프 랜덤발송 세트, 공(둘레 780mm..., 1개</t>
+          <t>[최신형] 차이슨 무선 스틱 청소기 BLDC 흡입력 좋은 진공청소기 + 다양한 구성품 + 평생AS, V25000, 화이트</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1. "탁월한 농구 경험을 위한 완벽한 세트"
-프로모릭스 픽앤롤 농구공 7호 세트는 농구 애호가들에게 필수 아이템입니다. 뛰어난 품질의 농구공은 내구성이 뛰어나며, 우수한 그립감 덕분에 드리블과 슛이 안정적입니다. 실내외 코트를 가리지 않고 탁월한 성능을 발휘합니다. 추가로 제공되는 편리한 휴대용 가방은 개인 용품을 수납할 수 있어 이동 시 매우 유용합니다. 또한, 랜덤 발송되는 단방향 볼펌프는 공기 주입이 쉬워 외부에서도 신속하게 사용할 수 있습니다. 가격 또한 저렴해 품질에 비해 뛰어난 가성비를 자랑합니다. 이 세트는 농구 체험을 한층 더 즐겁게 만들어 줄 완벽한 선택입니다.
-2. "편리함과 품질을 동시에!"
-"편리함과 품질을 동시에!"라는 점에서 프로모릭스 픽앤롤 농구공 세트는 매우 만족스럽습니다. 농구공은 내구성이 뛰어난 소재로 제작되어 오랜 사용에도 견딜 수 있으며, 탁월한 그립감 덕분에 드리블과 슈팅 시 안정적인 컨트롤을 제공합니다. 이 농구공은 실내와 야외 모두에서 우수한 성능을 발휘하여 어떤 환경에서도 좋습니다. 또한, 세트에 포함된 가방은 추가 개인 용품을 수납할 수 있는 충분한 공간과 편리한 어깨 스트랩을 갖추고 있어 이동 시 부담이 없습니다. 단방향 볼펌프도 작고 효율적이어서 언제 어디서나 손쉽게 공기를 주입할 수 있어 매우 실용적입니다. 이 모든 요소가 결합되어 편리함과 품질을 동시에 충족시키는 농구공 세트로, 농구를 즐기는 모든 이들에게 추천할 만합니다.</t>
+          <t>1. 가성비 최고의 경량 청소기  
+가성비 최고의 경량 청소기인 차이슨 무선 스틱 청소기는 기대 이상의 성능으로 기숙사나 자취방에서 가볍게 사용하기에 적합합니다. 흡입력이 우수해 머리카락이나 먼지를 손쉽게 청소할 수 있으며, 소음이 매우 적어 늦은 시간이나 이른 아침에도 부담 없이 사용할 수 있습니다. 깔끔한 디자인 덕분에 인테리어에도 잘 어울리며, 가벼운 무게로 이동과 사용이 편리합니다. 충전 방식은 다소 아쉬운 점이 있으나, 전반적으로 아주 만족스러운 제품으로, 초보 청소기 사용자에게도 강력히 추천할 수 있는 아이템입니다.
+2. 강력한 흡입력과 조용한 작동
+이 청소기의 흡입력은 정말 인상적입니다. 바닥에 떨어진 머리카락이나 먼지 등을 손쉽게 흡입해 주어 청소가 간편합니다. 더욱이, 소음이 조용해 기숙사처럼 방음이 잘 되지 않는 환경에서도 부담 없이 사용할 수 있습니다. 늦은 밤이나 이른 아침에도 민폐 없이 청소할 수 있어 편리함을 제공합니다. 강력한 흡입력과 낮은 소음 덕분에 청소를 자주 하게 만드는 제품으로, 무선 청소기를 고민하는 분들께 자신 있게 추천할 만합니다. 이 가격대에 이 정도 성능은 정말 대만족입니다!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnZG6D</t>
+          <t>https://link.coupang.com/a/crdkF3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/2020/10/12/12/8/07694e82-6278-435c-b46e-2c30c13a3608.jpg</t>
+          <t>https://thumbnail7.coupangcdn.com/thumbnails/remote/492x492ex/image/1025_amir_coupang_oct_80k/676a/206051366fa1a6c13b6a46e120b517674709c9c58dd65149acb8b49da1a3.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>● 구매일자 : 10월 1일
-● 배송일자 : 10월 2일
-● 구매후기 :
-초등아이가 농구를 하고 싶다고 하여 쿠팡
-에서 농구공을 구매하였습니다.
-VESTA 프리바스켓볼 7호 농구공을 받아보니 생각보다 가벼웠고 그립감이 괜찮았습니
-다. 보통의 농구공은 무거워서 아이가 공으로 플레이하기에 좀 힘들어했는데..
-7호 크기와 무게가 아이에게 적합하여 농구공을 던지거나 받는 데에 자연스럽고 편안한 느낌을 줍니다.
-초등아이가 부담없이 공을 잡고 손에서 미끄 러짐 없이 안정적인 컨 트롤이 가능했고, 드리블을 할 때도 그립이 좋은 덕분에 손에 힘을 주지 않고 자연스럽 게 공을 다룰 수 있어 농구 초보자나 어린 아이들에게 좋을 듯 합니다.
-그리고 외부 고무 재질이 튼튼한것 같고 가
-격 대비 7호 농구공은 비슷한 가격대의 다른 제품들과 비교했을 때 품질이 괜찮고 가격 은 합리적이어서 가성비 좋은 제품으로 추천 할 수 있겠습니다.
-종합적으로 볼 때, VESTA 프리바스켓볼 7호 농구공은 내구성, 그립감, 가격까지 모든면 면에서 만족스러운 제품으로 초보이면서 농구 를 자주하는 사람이나 가볍게 농구경기를 즐기고 싶어하는 초등아이들에게 좋을것 같습니다.</t>
+          <t>홈 플래닛 유선 청소기 화이트 리뷰 ➰⭐️
+제조국 / 중국
+소비전력 / 600w
+중량 / 2kg
+출시년원도 / 2021년 4월
+유무선 여부 / 유선
+제품 추천 요약 ☑️
+1. 저렴한 가격
+2. 강력한 흡입력
+3. 가벼운 무게
+구매이유!ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ
+저희집 청소기가 너무 너무 무겁고 오래 쓰다보니 흡입력도 많이 떨어지고해서 아 새로 사야되나 고민되더라구요 .. 그래서 아휴 새로 하나 사자 싶어서 쿠팡에서 청소기 둘러보다가 이제품을 발견하게 되었어요
+가격이 무려 이만원! 30일 무료 반품도 되고 AS도 가능하다니 이건 사고 실패해도 돈 안아깝겠다 싶더라구요
+리뷰 보니까 이만원에 이정도면 가성비면에서 참 좋겠다 생각이 들어서 구매하게 되었습니다
+후기!ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ
+쿠팡답게 배송은 완전 로켓배송 하루만에 배달왔습니다
+하 큰일났어요 로켓배송에 길들여져서 이제 하루 이상걸리면 답답해지는 지경까지 와버렸네요 ㅋㅋㅋㅋㅋㅋㅋ
+이래서 쿠팡에 한번 중독되면 뭐든 쿠팡으로만 시키게 되나 봅니다 싸고 빨리오고 쿠팡만한 배송업체가 없어요
+아무튼 제품은 부서진곳 없이 멀쩡히 잘 도착했구요 생각보다 컴팩트해서 조립 어렵지 않습니다
+작동해보니 다른 리뷰들처럼 소음이 좀 심하긴한데 이정도 가격이면 뭐든 용서되는거 아니겠어요
+하나 불편한점은 콘센트 선이 좀 잘 빠진다는거? 헐거운 느낌으로 좀 자주 뽑히더라구요 아마 이건 제가 뽑기 실패한거같아요
+무료 반품도 가능하니 이점은 단점은 아닌거 같고요 저는 교환은 너무 귀찮아서 그냥 쓸려고요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
+가성비적인면에선 너무 추천드리고 싸고 가벼운 청소기 구매하실분들께 이 제품 [홈 플래닛 유선 청소기] 추천드립니다
+리뷰가 도움이 되었다면 추천꾹!
+모두들 맛있는 식사 되시길 바라요 :)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VESTA 프리 바스켓볼 BA-1059, BA-1059, 7호, 1개</t>
+          <t>홈플래닛 2 IN 1 유선 청소기, 화이트, MC607B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1. 초등학생에게 딱 맞는 농구공  
-VESTA 프리바스켓볼 7호 농구공은 초등학생에게 적합한 농구공입니다. 가벼운 무게와 적절한 크기로, 아이들이 자연스럽게 공을 던지고 잡는 데 도움을 줍니다. 그립감이 뛰어나서 공이 손에서 미끄러질 걱정 없이 안정적으로 조작할 수 있습니다. 드리블을 할 때도 힘을 덜 주고 편안하게 다룰 수 있어, 농구 초보자에게 최적입니다. 외부 고무 재질이 튼튼하여 내구성이 좋고, 가격 대비 품질이 뛰어나 가성비가 뛰어난 제품으로 추천할 만합니다. 농구를 처음 시작하는 초등학생들에게 이상적인 선택이 될 것입니다.
-2. 가볍고 편안한 그립감
-VESTA 프리바스켓볼 7호 농구공은 가벼운 무게 덕분에 초등학교 아이들이 사용하기에 매우 적합합니다. 이러한 경량성 덕분에 아이들은 공을 던지고 받는 데 부담을 느끼지 않고 자연스럽게 다룰 수 있습니다. 특히 그립감이 우수하여 손에서 미끄러짐 없이 안정적으로 컨트롤할 수 있어 농구 초보자에게 많은 도움을 줍니다. 드리블할 때도 힘을 시도하지 않고 자연스러운 동작이 가능하여, 농구를 처음 접하는 아이들이 보다 자신감을 가지고 플레이할 수 있게 합니다. 이 공은 경험이 부족한 어린이들이 농구를 즐기는 데 최적화된 제품이라고 할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cnZG70</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://thumbnail6.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/5e3f/c0e802ad15bd9f9e621481b50d09f6962d46cd27e601c31cdde94e521129.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>소음: 확실히 소음이 적음. 집이 2층이라 2층에서 드리블해도 1층에선 못 느낌. 다만 소음이 증폭되는 밤에는 귀 기울이면 조금씩 웅웅 하면서 진동 울리는듯한 소리는 남. 근데 신경 쓰일 정도는 아님. 공 튀길 때 은근 소리가 꽤 나는데? 싶지만 밑에 집 입장에선 잘 안 들림.
-드리블&amp;슛: 생각보다 드리블에서는 공 탄력이 스펀지라 썩 좋지는 않지만 슛감은 실제 농구공이랑 거의 똑같아서 놀랐음. 자유투, 3점슛 라인에서 실제 농구공과 이 사일런트 농구공을 던졌는데 공 재질, 무게만 다를 뿐이지 쏘는 힘이나 각도를 똑같이 쐈는데도 크게 차이는 못 느꼈음. 하지만 확실히 로고샷은 하프라인에서 던지는 거라 사일런트 농구공이 거리가 좀 짧았음. 완전 멀리서 슛 쏘는 거 아니면 자유투, 3점슛은 실제 농구공과 크게 차이가 없었음</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ZEEKR 휴대용 사일런트농구공 무소음농구공 소음 차단 실내 농구 방수 3D 입체, 24cm, 1개</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1. 소음 걱정 없는 농구공  
-ZEEKR의 무소음 농구공은 소음 걱정 없이 실내에서도 편리하게 사용할 수 있는 제품입니다. 2층에서 드리블해도 1층에서는 거의 소음이 느껴지지 않아, 이웃의 방해를 최소화할 수 있습니다. 특히 밤 시간대에는 소음이 다소 증폭될 수 있지만, 귀 기울이지 않으면 신경 쓰이지 않을 정도입니다. 드리블 시에는 스펀지 재질로 인해 다소 탄력이 아쉬울 수 있지만, 슛감은 실제 농구공과 유사해 놀라울 정도입니다. 자유투와 3점슛에서 큰 차이를 느끼지 못할 만큼 자연스러운 느낌을 제공합니다. 다만, 하프라인에서의 장거리 슛은 거리가 짧아지는 경향이 있습니다. 일반적인 실내 농구 활동에서 소음 걱정 없이 사용하기에 훌륭한 선택입니다.
-2. 슛감이 뛰어난 사일런트 농구공
-ZEEKR 휴대용 사일런트 농구공은 소음 차단 기능이 뛰어나 실내에서 편안하게 농구 연습을 할 수 있게 해줍니다. 이 농구공은 스펀지 소재로 제작되어 드리블 시 탄력은 다소 떨어지지만, 슛감은 실제 농구공과 거의 유사합니다. 자유투와 3점슛에서 느끼는 감각은 놀라울 정도로 비슷하여, 던지는 힘과 각도만으로도 정확한 조준이 가능합니다. 하프라인에서의 샷에서는 거리감이 약간 부족하지만, 근거리와 중거리 슛에서는 큰 차이를 느끼기 힘듭니다. 실내에서도 조용하게 농구를 즐길 수 있어 특히 2층에서 연습할 때 유용하며, 소음이 불편하지 않은 장점이 있습니다. 이처럼 사일런트 농구공은 뛰어난 슛감을 제공하면서도 소음 걱정 없이 농구를 즐길 수 있도록 도와줍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cnZHax</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://thumbnail9.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/5830824382606745-71f6e9e8-a15b-4e05-989c-ca4665def0e9.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1. 구매 이유
-오랜만에 농구를 다시 시작해 볼까해서 고민하던중
-'스팔딩 TF 골드 농구공 76-857Z ' 을 구매했습니다
-저는 중학교때까지 농구선수, 대학을 농구 전공으로 갔습니다
-아이를 위해 공을 구매한 리뷰가 아닌 직접 사용하기 위해 산 사람으로서
-실제로 사용 후기를 아래에 남깁니다
-2. 제품의 특징
-◎ 재질 : 합성피혁
-◎ 규격 : 7호
-◎ 금박 로고가 있다
-◎ 무게 : 600g
-3. 장점
-◎ 인도어, 아웃도어 만능 공
-- 내부에서 사용하는 공임에도 불가하고 튼튼한 내구성을 가지고 있다
-◎ 농구공의 홈이 다른 농구공에비해 깊은 편에 속하기 떄문에 야외에서 컨트롤하기에 훨씬 좋습니다
-- 스윙, 혹은 한손에 공을 킵핑하기가 쉬움
-- 또한 홈이 깊기 떄문에 다른 공에비해 수명이 깁니다
-- 그립감이 아주 좋음
-◎ 이 제품을 오래 사용하지는 않았지만 그전 오리지날버전 (금박 NBA) 같은 경우 5개월을 넘게
-야외에서 사용했는데도 접지력이 살아있었습니다 (농구공 사용 후 마른 수건으로 닦아줌)
-4. 단점
-◎ 합성피혁이기 때문에 먼지를 잘먹습니다
-◎ 다른 고무 재질 공에 비해 괜찮은 편이지만 스팔딩 골드도 저렴한 편이기 때문에 공의 마감이 조금 떨어집니다
-◎ 개인적인 생각으로 공이 좀 딱딱합니다 (아웃도어용의 특징 / 실내 겸용이지만 딱딱함)
-◎ 공을 컨트롤 했을 떄 개인적으로 좀 뜬다..라는 느낌이 있습니다
-5. 추가 TIP
-◎ 항상 야외에서 사용 후 마른 수건으로 먼지를 닦아주세요 , 농구공의 접지력 유지에 가장 큰 부분을
-차지합니다
-◎ 물로는 닦지 마세요 가볍게 닦는건 상관이 없지만, 적셔가면서 닦을 경우 마르면서 농구공에 변형을 줍니다
-◎ 되도록이면 그냥 들고 다니는게 아닌 농구공 보관 가방에 넣는게 좋습니다
-- 그냥 보관하면 먼지가 붙어서 접지력이 떨어집니다
-◎ ★7호의 규격을 가지고 있습니다, 7호는 중학생부터 사용이 가능한 호수 입니다 ★
-6 만족도 및 총평
-◎ 가격 만족도 : ★★★★★
-◎ 제품 만족도 : ★★★★★
-◎ 배송 만족도 : ★★★★★
-◎ 포장 만족도 :★★★★★
-◎ 재구매 의사 : ★★★★★
-◎ 총평 : 여러 농구공을 사용해보고 연습 및 시합을 밥먹듯이 해봤습니다 나름 정확한 리뷰가 아닐 까 생각됩니다
-제 예상 사용 기간은 2~3년 정도입니다
-무게가 평범한 600g임에도 불구하고 다른 공들에 비해 좀 가볍다고 느껴집니다(포지션 : 포워드)
-하지만 '몰텐' 이나 "윌슨 에볼루션에 비해서는 아주 약간 무겁다고 느껴집니다
-저가 형 고무 재질의 공에 비해 접지력 및 튕기는 맛이 다릅니다
-자금 여유가 있을 경우 STAR의 점보 시리즈 보다는 스팔딩 골드를 추천합니다
-농구공중에서는 저렴한 편에 속하기 떄문에 가성비가 충분히 있다고 생각합니다
-가볍게 중학교 이상의 아이들이 사용하거나 성인(농구에 관심이 있는)중 연습용 아웃도어용으로
-사용하시면 좋겠습니다 (실내 시합용은 역시..윌슨의..에ㅂㄹ..)
-〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
-지금까지 ●내 돈 내 산● 찐 리뷰였습니다.
-제 리뷰가 여러분의 구매에 도움이 되었으면 좋겠습니다
-리뷰가 맘에 드셨다면 [도움이 돼요] 부탁 드립니다.
-항상 건강하시고 행복하세요 감사합니다~
-〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>스팔딩 TF 골드 오리지널 농구공 76-264Z, 76-264Z, 7호, 1개</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1. "최고의 가성비 농구공"
-스팔딩 TF 골드 오리지널 농구공 76-264Z는 최고의 가성비를 자랑하는 농구공입니다. 합성피혁으로 제작되어 내구성이 뛰어나고, 인도어와 아웃도어에서도 모두 사용할 수 있습니다. 공의 홈이 깊어 그립감이 뛰어나며, 컨트롤이 용이합니다. 사용자가 느낀 접지력과 튕김의 맛은 저가형 고무 농구공과 비교할 수 있는 차별점입니다. 가격 대비 성능이 훌륭하여 중학생부터 성인까지 모두에게 적합한 선택입니다. 2~3년의 사용 기간을 기대할 수 있으며, 농구에 관심 있는 모든 사용자에게 추천할 만한 제품입니다.
-2. "내구성과 그립감 우수"
-스팔딩 TF 골드 오리지널 농구공은 내구성과 그립감에서 탁월한 성능을 자랑합니다. 합성피혁 재질로 제작되어 있어 인도어와 아웃도어 환경에서 모두 사용할 수 있으며, 뛰어난 내구성 덕분에 오랜 시간 사용해도 상태가 좋습니다. 특히 농구공의 홈이 깊은 편이라 손에 쥐었을 때 매우 안정적인 그립감을 제공합니다. 이로 인해 스윙이나 한 손으로 공을 컨트롤할 때 훨씬 용이하며, 접지력이 유지됩니다. 실제로 이전 모델을 야외에서 5개월 사용했음에도 불구하고 여전히 좋은 성능을 일관되게 발휘했습니다. 따라서 이 농구공은 연습 및 시합에서 매우 만족스러운 경험을 제공합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cnZHbt</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/371d/0e0b7abb00f8d6e17ec3542a4cdf89b7c3ec410789a630a1526f6291606c.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>STAR 스타 농구공 점보루키 7호 BB6067, 점보루키 + SQUALO 공가방 &amp;
-펌프 세트를 구매했는데 만족스러워요
-날도 좀 풀렸겠다 집앞에 운동장에서 운동 겸 남자친구랑 농구할려고 구매했어요
-농구공에 펌프와 공가방까지 세트라 가격대도 합리적인 거 같아요
-STAR 스타 농구공 점보루키 7호 BB6067
-디자인부터 너무 예쁘고 고급스러워요
-농구공에 대한 기본적인 기대감을 넘어서 손에 쥐었을 때 그립감이 좋아요
-겉 표면이 미끄럽지 않아서 드리블할 때나 패스를 할 때 정말 편하고
-안정감 있게 다룰 수 있어요
-색상도 화려하면서도 세련돼서 시각적으로도 만족스럽고
-게임 중에 볼 때마다 눈에 띄는 느낌이랄까?
-그리고 공을 사용해본 결과 충격 흡수력이 뛰어나서 바닥에 튕길 때도
-소리가 너무 거슬리지 않아요
-실내에서 사용해도 불편함이 없고 내구성도 좋아 보여서
-오랜 시간 사용할 수 있을 것 같아요
-근데 일반적인 농구공 같은 건 줄 알았는데(좀 단단하고 큰거)
-고무공이라 살짝 아쉬워요 크기도 일반 농구공보다 작음
-대신 여자들이 던지고 하기엔 편해서 좋았어요
-점보루키와 SQUALO 공가방 + 펌프 세트도 정말 유용하고 실용적이에요
-공가방은 공을 안전하게 보관할 수 있어서 너무 좋고
-디자인도 간단하면서 멋져서 어디에 두어도 전혀 부담이 없어요
-공을 가지고 다닐 때 너무 튼튼해서 찢어질 염려도 없고
-가방 안에 펌프도 들어 있어서 언제든지 공의 바람을 체크하고 채울 수 있어요
-농구공을 자주 사용하는 사람에게는 펌프가 포함된 세트가 정말 실용적!!
-펌프도 작고 가벼워서 휴대하기 편리하고
-바람 넣는 것도 굉장히 쉬워서 이 점이 매우 마음에 들었어요
-평소 공에 바람을 넣는 게 번거로운데
-이 펌프는 사용하기 편하고 빠르게 공을 셋팅할 수 있어 좋았어요
-세트 구성 자체가 너무 합리적이어서 한 번에 필요한
-모든 것을 준비할 수 있다는 점이 좋았어요
-농구공, 펌프, 공가방이 모두 포함되어 있어서 따로 구매할 필요가 없고
-가격도 꽤 합리적인 편이라 만족했어요
-♡도움이 되셨다면 도움이 돼요 버튼 눌러주시면 감사하겠습니다♡</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STAR 스타 농구공 점보루키7호 BB6067, 점보루키 + SQU..., 1개</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1. "완벽한 농구공 세트"
-스타 농구공 점보루키 7호 BB6067 세트는 농구를 즐기는 이들에게 완벽한 선택입니다. 세트에는 농구공, SQUALO 공가방, 펌프가 포함되어 있어 운동에 필요한 모든 것을 한 번에 갖출 수 있습니다. 농구공은 디자인이 세련되고 그립감이 뛰어나며, 미끄럽지 않은 표면 덕분에 드리블과 패스가 용이합니다. 내구성이 좋고 충격 흡수력이 뛰어나 실내외에서 사용하기에도 적합합니다. 가방은 튼튼하고 모던한 디자인으로 안전하게 보관할 수 있게 도와주며, 펌프는 작고 휴대가 간편해 언제든지 바람을 체크할 수 있어 매우 실용적입니다. 합리적인 가격으로 모든 필수 아이템을 포함한 이 세트는 농구 애호가들에게 많은 만족을 줄 것입니다.
-2. "편리한 펌프와 가방 포함"
-STAR 스타 농구공 점보루키 7호 BB6067은 편리한 펌프와 공가방이 포함되어 있어 실용성이 뛰어납니다. 공가방은 농구공을 안전하게 보관할 수 있도록 디자인되어 있으며, 튼튼한 소재로 만들어져 찢어질 걱정 없이 사용할 수 있습니다. 가방의 간결한 디자인은 어디에 두어도 부담이 없고, 이동 시에도 편리합니다. 또한, 포함된 펌프는 작고 가벼워 휴대하기 용이하며, 바람 넣는 과정이 매우 간편해 사용자에게 큰 만족을 줍니다. 이처럼 세트 구성은 모든 필요한 요소를 한 번에 제공하여, 농구를 즐기는 사람들에게 매우 유용한 선택이 됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cnZHfv</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/656a/6c4eabf1cb6be6cc9fee4fd71b564840bfea7a7e3134e8d81ae3fd22819b.jpg</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#농구공 #스타스톤 #농구 #펌프세트
-제품명 : 스타스톤 농구공 점보 루키 투센 볼펌프 가방세트
-기존에 오랫동안 사용하던 요 갈색 스타스톤 농구공
-바람이 빠져서 다시 주입~~~
-고무가 새는지 바람 구멍이 있는지
-한두번 던지니 공이 튀다 말더라구요,
-농구공과 농구공가방, 펌프세트까지 한번에 구성된 요 농구공 세트를
-데려왔습니다.
-펌프질은 역시 수동이라 한참이 걸리지만
-다 넣고나니 농구 즐기는 아이들이 좋아하네요,
-배송은 쾌속으로
-공은 바람빠진 접어진 상태로
-배송됩니다.
-이게 공인가 싶었는데 바람없이 왔드라구요,
-통통 잘튀며 농구 잘하고 놀고 있습니다.
-농구공은 역시 스타스톤 같아요,
-구매하시는 분께 도움이 되시길 바랍니다.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>스타 농구공 점보루키7호 BB6067 + 투센 볼펌프 + 투센 볼가방, 7호, 600~650g, 1세트</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1. 스타스톤 농구공 세트  
-스타스톤 농구공 점보 루키 7호 BB6067 세트는 농구를 사랑하는 아이들에게 최적의 선택입니다. 이 세트에는 농구공, 투센 볼펌프, 그리고 볼가방이 포함되어 있어 편리하게 사용할 수 있습니다. 농구공은 600~650g의 무게로 조절되어 있으며, 바람이 빠진 상태로 배송되지만 펌프를 이용해 쉽게 주입할 수 있습니다. 수동 펌프 사용이 다소 번거로울 수 있으나, 바람이 제대로 주입된 후에는 그립감과 튀김이 뛰어나 훌륭한 농구 경험을 제공합니다. 배송 또한 신속하게 진행되어 사용하기 전 번거로움이 없습니다. 스타스톤 농구공은 언제나 믿을 수 있는 품질을 자랑하며, 농구를 즐기는 아이들에게 큰 기쁨을 선사합니다.
-2. 편리한 펌프와 가방 포함
-스타스톤 농구공 점보 루키 세트는 편리한 펌프와 가방이 포함되어 있어 한층 더 실용적인 선택입니다. 투센 볼펌프는 수동으로 작동하지만, 농구공을 원하는 압력으로 쉽게 주입할 수 있어 언제든지 농구를 즐길 수 있게 해줍니다. 덕분에 바람이 빠진 농구공도 금방 준비할 수 있죠. 또한, 농구공을 보관하고 이동하는 데 유용한 볼가방이 함께 제공되어, 외부 활동이나 연습 시 편리함을 더해줍니다. 이러한 구성으로 언제 어디서나 아이들이 농구를 즐길 수 있는 최적의 환경을 제공합니다. 빠른 배송 덕분에 기다림 없이 바로 사용할 수 있다는 점도 큰 장점입니다.</t>
+          <t>1. 가성비 최강 청소기  
+홈플래닛 2 IN 1 유선 청소기, MC607B는 가성비가 뛰어난 제품으로 주목받고 있습니다. 2kg의 가벼운 무게와 600W의 강력한 흡입력 덕분에 청소가 한층 더 수월해집니다. 특히 가격이 2만원으로 매우 저렴하여 경제적 부담이 적습니다. 사용자의 후기에 따르면, 빠른 배송은 물론 조립이 용이하고, 기본적인 청소 기능을 충실히 수행합니다. 다만, 소음이 다소 크고 콘센트 선이 헐거운 점은 단점으로 지적되고 있지만, 전반적인 가성비를 고려할 때 충분히 수용 가능한 수준입니다. ACL(30일 무료 반품) 서비스까지 제공돼 구매 후에도 안심할 수 있어, 가벼운 청소기를 찾는 분에게 강력 추천합니다!
+2. 경량으로 손쉬운 청소
+홈플래닛 2 IN 1 유선 청소기 MC607B는 경량으로 손쉬운 청소를 제공합니다. 이 청소기의 무게는 단 2kg으로, 손쉽게 들고 다니며 모든 공간을 간편하게 청소할 수 있습니다. 특히, 무겁고 bulky한 청소기에 지쳐 있는 분들에게는 이상적인 선택입니다. 컴팩트한 디자인 덕분에 좁은 곳에서도 유연하게 사용이 가능하며, 조립도 간단해 사용 즉시 청소에 들어갈 수 있습니다. 비용 부담이 적은 이 제품은 강력한 흡입력으로 효율적인 청소를 도와줘, 시간과 노력을 절약할 수 있게 해줍니다. 가성비가 뛰어난 홈플래닛 청소기를 통해 스트레스 없는 청소 경험을 하세요!</t>
         </is>
       </c>
     </row>
